--- a/xlsx/测试.xlsx
+++ b/xlsx/测试.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="#Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="#Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>表名</t>
+    <t>#表名</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>键数</t>
+    <t>#键数</t>
   </si>
   <si>
     <t>id</t>
@@ -62,10 +62,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,6 +78,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,6 +121,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,14 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -122,14 +167,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -137,15 +182,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,14 +197,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,53 +221,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,49 +236,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,37 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,49 +392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,32 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +480,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -508,13 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,13 +1055,13 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1162,7 +1162,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1175,11 +1175,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/xlsx/测试.xlsx
+++ b/xlsx/测试.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="#Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="#Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>#表名</t>
   </si>
@@ -55,6 +55,60 @@
   </si>
   <si>
     <t>大紫</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>list1</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>list2</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>{"a":1,"b":2}</t>
+  </si>
+  <si>
+    <t>[{"tt":1,"tt2":"2"}]</t>
+  </si>
+  <si>
+    <t>[1,2,3,5]</t>
+  </si>
+  <si>
+    <t>{"a":1,"b":3}</t>
+  </si>
+  <si>
+    <t>[{"tt":1,"tt2":"3"}]</t>
+  </si>
+  <si>
+    <t>[1,2,3,6]</t>
+  </si>
+  <si>
+    <t>{"a":1,"b":4}</t>
+  </si>
+  <si>
+    <t>[{"tt":1,"tt2":"4"}]</t>
+  </si>
+  <si>
+    <t>[1,2,3,7]</t>
+  </si>
+  <si>
+    <t>{"a":1,"b":5}</t>
+  </si>
+  <si>
+    <t>[{"tt":1,"tt2":"5"}]</t>
   </si>
 </sst>
 </file>
@@ -62,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,6 +138,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,15 +152,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +225,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,38 +251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,63 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,31 +290,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +416,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,138 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,35 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +521,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +549,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,6 +572,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,145 +604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1110,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1156,14 +1210,151 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1175,7 +1366,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
